--- a/nodes_source_analyses/households/households_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/households/households_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="8760" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -452,9 +460,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
@@ -917,6 +922,10 @@
   <si>
     <t>electricity output capacity</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +943,7 @@
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1162,11 +1171,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1842,7 +1846,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2006,7 +2010,7 @@
     <xf numFmtId="165" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2036,7 +2040,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,13 +2055,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2068,18 +2072,18 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2105,7 +2109,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="33" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2131,19 +2135,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2161,7 +2165,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="36" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2169,7 +2173,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2178,36 +2182,15 @@
     <xf numFmtId="167" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="34" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="33" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="333">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2546,80 +2529,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>508000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2909,7 +2827,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3348,32 +3266,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="74" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="35" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="72" customFormat="1">
+    <row r="1" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70"/>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="73"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>22</v>
@@ -3382,7 +3300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>82</v>
@@ -3391,7 +3309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -3400,24 +3318,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="122" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="123"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="124"/>
       <c r="C9" s="125"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="124" t="s">
         <v>85</v>
@@ -3426,33 +3344,33 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" thickBot="1">
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="124"/>
       <c r="C11" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="124"/>
       <c r="C12" s="127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="124"/>
       <c r="C13" s="125" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="124"/>
       <c r="C14" s="125"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="124" t="s">
         <v>90</v>
@@ -3461,49 +3379,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="124"/>
       <c r="C16" s="129" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="124"/>
       <c r="C17" s="130" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="124"/>
       <c r="C18" s="131" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="132"/>
       <c r="C19" s="133" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="132"/>
       <c r="C20" s="134" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="132"/>
       <c r="C21" s="135" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="132"/>
       <c r="C22" s="136" t="s">
@@ -3513,89 +3431,84 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="41.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="7" max="7" width="32.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="206" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="207"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="207"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="16"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="211"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="15"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="206"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1">
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="137"/>
       <c r="D6" s="137"/>
@@ -3605,7 +3518,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -3616,7 +3529,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="26" t="s">
         <v>38</v>
@@ -3637,7 +3550,7 @@
       </c>
       <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="44"/>
       <c r="C9" s="23"/>
       <c r="D9" s="78"/>
@@ -3648,10 +3561,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
       <c r="C10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="23"/>
@@ -3661,10 +3574,10 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
       <c r="C11" s="152" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>5</v>
@@ -3677,11 +3590,11 @@
       <c r="G11" s="33"/>
       <c r="H11" s="76"/>
       <c r="I11" s="197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="83" t="s">
         <v>40</v>
@@ -3701,7 +3614,7 @@
       <c r="J12" s="146"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="82" t="s">
         <v>42</v>
@@ -3721,7 +3634,7 @@
       <c r="J13" s="146"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="37"/>
       <c r="C14" s="84" t="s">
@@ -3742,7 +3655,7 @@
       <c r="J14" s="147"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="37"/>
       <c r="C15" s="95" t="s">
@@ -3763,14 +3676,14 @@
       <c r="J15" s="147"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="37"/>
       <c r="C16" s="95" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="36">
         <f>'Research data'!G7</f>
@@ -3782,19 +3695,19 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" s="146"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="37"/>
       <c r="C17" s="95" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="87">
         <v>0</v>
@@ -3805,12 +3718,12 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="146"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="95" t="s">
         <v>49</v>
@@ -3831,7 +3744,7 @@
       </c>
       <c r="J18" s="146"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="95" t="s">
         <v>65</v>
@@ -3852,7 +3765,7 @@
       </c>
       <c r="J19" s="146"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="95" t="s">
         <v>50</v>
@@ -3873,7 +3786,7 @@
       </c>
       <c r="J20" s="146"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="95" t="s">
         <v>51</v>
@@ -3894,7 +3807,7 @@
       </c>
       <c r="J21" s="146"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="95" t="s">
         <v>52</v>
@@ -3915,7 +3828,7 @@
       </c>
       <c r="J22" s="146"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="37"/>
       <c r="C23" s="141"/>
       <c r="D23" s="121"/>
@@ -3926,10 +3839,10 @@
       <c r="I23" s="35"/>
       <c r="J23" s="146"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="143"/>
@@ -3939,7 +3852,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="146"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="95" t="s">
         <v>53</v>
@@ -3957,11 +3870,11 @@
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="148"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="95" t="s">
         <v>54</v>
@@ -3978,11 +3891,11 @@
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J26" s="148"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="95" t="s">
         <v>15</v>
@@ -4000,11 +3913,11 @@
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J27" s="146"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="95" t="s">
         <v>55</v>
@@ -4017,7 +3930,7 @@
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="36" t="s">
@@ -4025,7 +3938,7 @@
       </c>
       <c r="J28" s="146"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="95" t="s">
         <v>56</v>
@@ -4047,7 +3960,7 @@
       </c>
       <c r="J29" s="146"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="95" t="s">
         <v>57</v>
@@ -4068,7 +3981,7 @@
       </c>
       <c r="J30" s="146"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="95" t="s">
         <v>58</v>
@@ -4085,11 +3998,11 @@
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J31" s="146"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="95" t="s">
         <v>61</v>
@@ -4110,7 +4023,7 @@
       </c>
       <c r="J32" s="146"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="84" t="s">
         <v>44</v>
@@ -4129,7 +4042,7 @@
       </c>
       <c r="J33" s="146"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="37"/>
       <c r="C34" s="95"/>
       <c r="D34" s="38"/>
@@ -4140,7 +4053,7 @@
       <c r="I34" s="141"/>
       <c r="J34" s="146"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="23" t="s">
         <v>8</v>
@@ -4153,7 +4066,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="146"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="82" t="s">
         <v>43</v>
@@ -4171,11 +4084,11 @@
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="146"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="95" t="s">
         <v>59</v>
@@ -4193,11 +4106,11 @@
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J37" s="146"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="95" t="s">
         <v>60</v>
@@ -4215,11 +4128,11 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J38" s="146"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="145" t="s">
         <v>41</v>
@@ -4238,7 +4151,7 @@
       </c>
       <c r="J39" s="146"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="95" t="s">
         <v>62</v>
@@ -4257,7 +4170,7 @@
       </c>
       <c r="J40" s="146"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="84" t="s">
         <v>16</v>
@@ -4276,7 +4189,7 @@
       </c>
       <c r="J41" s="146"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="83" t="s">
         <v>63</v>
@@ -4295,7 +4208,7 @@
       </c>
       <c r="J42" s="146"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="83" t="s">
         <v>66</v>
@@ -4314,7 +4227,7 @@
       </c>
       <c r="J43" s="146"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="84" t="s">
         <v>64</v>
@@ -4333,7 +4246,7 @@
       </c>
       <c r="J44" s="146"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40"/>
       <c r="C45" s="41"/>
       <c r="D45" s="41"/>
@@ -4344,7 +4257,7 @@
       <c r="I45" s="41"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
@@ -4354,7 +4267,7 @@
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4364,7 +4277,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4374,7 +4287,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4384,7 +4297,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4394,7 +4307,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4404,7 +4317,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4414,7 +4327,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4424,7 +4337,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4434,7 +4347,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4444,7 +4357,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4454,7 +4367,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -4464,7 +4377,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -4474,7 +4387,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4484,7 +4397,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -4494,7 +4407,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4504,7 +4417,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -4514,7 +4427,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -4524,7 +4437,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -4534,7 +4447,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -4544,7 +4457,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -4554,7 +4467,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -4566,47 +4479,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>508000</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4621,25 +4497,25 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="3.25" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="42" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="42" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="42" customWidth="1"/>
     <col min="13" max="13" width="56" style="42" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="42"/>
+    <col min="14" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -4653,10 +4529,10 @@
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
     </row>
-    <row r="3" spans="2:13" s="46" customFormat="1">
+    <row r="3" spans="2:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="44"/>
       <c r="C3" s="153" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4668,7 +4544,7 @@
       </c>
       <c r="H3" s="153"/>
       <c r="I3" s="182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="153"/>
       <c r="K3" s="153" t="s">
@@ -4679,7 +4555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -4693,10 +4569,10 @@
       <c r="L4" s="18"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
@@ -4709,10 +4585,10 @@
       <c r="L5" s="18"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
       <c r="C6" s="195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -4733,7 +4609,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
       <c r="C7" s="49" t="s">
         <v>34</v>
@@ -4741,7 +4617,7 @@
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="196" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="202">
         <f>G8*G11*1000000/1000</f>
@@ -4753,18 +4629,18 @@
       <c r="K7" s="35"/>
       <c r="L7" s="18"/>
       <c r="M7" s="190" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="195" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="196" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="92">
         <f>I8</f>
@@ -4779,10 +4655,10 @@
       <c r="K8" s="35"/>
       <c r="L8" s="48"/>
       <c r="M8" s="190" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
@@ -4795,10 +4671,10 @@
       <c r="K9" s="35"/>
       <c r="L9" s="54"/>
       <c r="M9" s="204" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="80" t="s">
         <v>8</v>
@@ -4814,10 +4690,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="150"/>
     </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
+    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -4837,7 +4713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="55" t="s">
         <v>1</v>
@@ -4857,10 +4733,10 @@
       <c r="K12" s="35"/>
       <c r="L12" s="54"/>
       <c r="M12" s="190" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="59" t="s">
         <v>6</v>
@@ -4884,7 +4760,7 @@
       <c r="L13" s="61"/>
       <c r="M13" s="82"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="37"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -4898,10 +4774,10 @@
       <c r="L14" s="19"/>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -4914,10 +4790,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4935,15 +4811,15 @@
       <c r="L16" s="19"/>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
       <c r="F17" s="161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="58">
         <f>I17</f>
@@ -4961,18 +4837,18 @@
       </c>
       <c r="L17" s="62"/>
       <c r="M17" s="163" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
       <c r="F18" s="161" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="60">
         <f>I18</f>
@@ -4990,10 +4866,10 @@
       </c>
       <c r="L18" s="54"/>
       <c r="M18" s="190" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="16" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="63" t="s">
         <v>9</v>
@@ -5001,7 +4877,7 @@
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
@@ -5014,15 +4890,15 @@
       <c r="L19" s="54"/>
       <c r="M19" s="167"/>
     </row>
-    <row r="20" spans="2:13" ht="16" thickBot="1">
+    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="189" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
@@ -5035,7 +4911,7 @@
       <c r="L20" s="54"/>
       <c r="M20" s="166"/>
     </row>
-    <row r="21" spans="2:13" ht="16" thickBot="1">
+    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="63" t="s">
         <v>10</v>
@@ -5056,7 +4932,7 @@
       <c r="L21" s="54"/>
       <c r="M21" s="167"/>
     </row>
-    <row r="22" spans="2:13" ht="16" thickBot="1">
+    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="63" t="s">
         <v>10</v>
@@ -5064,7 +4940,7 @@
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
       <c r="F22" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="58">
         <f>I22</f>
@@ -5080,10 +4956,10 @@
       <c r="L22" s="54"/>
       <c r="M22" s="33"/>
     </row>
-    <row r="23" spans="2:13" ht="16" thickBot="1">
+    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
@@ -5100,15 +4976,15 @@
       <c r="L23" s="62"/>
       <c r="M23" s="145"/>
     </row>
-    <row r="24" spans="2:13" ht="16" thickBot="1">
+    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
       <c r="F24" s="164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="56">
         <f>K24</f>
@@ -5123,7 +4999,7 @@
       <c r="L24" s="54"/>
       <c r="M24" s="177"/>
     </row>
-    <row r="25" spans="2:13" ht="16" thickBot="1">
+    <row r="25" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="86" t="s">
         <v>70</v>
@@ -5131,7 +5007,7 @@
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
       <c r="F25" s="149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="58">
         <f>I25</f>
@@ -5150,11 +5026,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5169,22 +5040,22 @@
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="96" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="96" customWidth="1"/>
     <col min="2" max="2" width="4" style="96" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="96" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="96" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="96" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="101" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="102" customWidth="1"/>
-    <col min="10" max="10" width="76.375" style="96" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="96"/>
+    <col min="3" max="3" width="27.85546875" style="96" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="96" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="96" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="101" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="102" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="96" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="103"/>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -5195,7 +5066,7 @@
       <c r="I2" s="106"/>
       <c r="J2" s="104"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="23" t="s">
         <v>26</v>
@@ -5208,7 +5079,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="97"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -5219,7 +5090,7 @@
       <c r="I4" s="100"/>
       <c r="J4" s="97"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="107"/>
       <c r="C5" s="24" t="s">
         <v>35</v>
@@ -5237,16 +5108,16 @@
         <v>37</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -5257,7 +5128,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="98"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
@@ -5268,7 +5139,7 @@
       <c r="I7" s="112"/>
       <c r="J7" s="108"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="109" t="s">
         <v>11</v>
@@ -5280,23 +5151,23 @@
         <v>13</v>
       </c>
       <c r="F8" s="192" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="192" t="s">
-        <v>138</v>
-      </c>
       <c r="I8" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" s="180"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="109" t="s">
         <v>12</v>
@@ -5309,7 +5180,7 @@
       <c r="I9" s="100"/>
       <c r="J9" s="179"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="98"/>
       <c r="D10" s="108"/>
       <c r="E10" s="97"/>
@@ -5319,34 +5190,34 @@
       <c r="I10" s="100"/>
       <c r="J10" s="108"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="98"/>
       <c r="C11" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="191" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="F11" s="192" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="192" t="s">
+      <c r="H11" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="192" t="s">
-        <v>138</v>
-      </c>
       <c r="I11" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="184" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="98"/>
       <c r="C12" s="193" t="s">
         <v>15</v>
@@ -5359,7 +5230,7 @@
       <c r="I12" s="100"/>
       <c r="J12" s="108"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="181" t="s">
         <v>60</v>
@@ -5367,10 +5238,10 @@
       <c r="I13" s="100"/>
       <c r="J13" s="159"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="114"/>
@@ -5380,7 +5251,7 @@
       <c r="I14" s="116"/>
       <c r="J14" s="108"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="109"/>
       <c r="D15" s="108"/>
@@ -5391,20 +5262,15 @@
       <c r="I15" s="116"/>
       <c r="J15" s="108"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="98"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5412,21 +5278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="160" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="160" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="160"/>
-    <col min="4" max="4" width="7.5" style="160" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="160"/>
+    <col min="1" max="1" width="5.140625" style="160" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="160" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="160"/>
+    <col min="4" max="4" width="7.42578125" style="160" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="160"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="168"/>
       <c r="C2" s="169"/>
       <c r="D2" s="169"/>
@@ -5441,7 +5307,7 @@
       <c r="M2" s="169"/>
       <c r="N2" s="170"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="173"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
@@ -5460,7 +5326,7 @@
       <c r="M3" s="174"/>
       <c r="N3" s="175"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="171"/>
       <c r="C4" s="159"/>
       <c r="D4" s="159"/>
@@ -5475,7 +5341,7 @@
       <c r="M4" s="159"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="171"/>
       <c r="D5" s="159"/>
       <c r="E5" s="159"/>
@@ -5489,7 +5355,7 @@
       <c r="M5" s="159"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="171"/>
       <c r="C6" s="159"/>
       <c r="D6" s="159"/>
@@ -5504,7 +5370,7 @@
       <c r="M6" s="159"/>
       <c r="N6" s="172"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="171"/>
       <c r="C7" s="159"/>
       <c r="D7" s="159"/>
@@ -5519,7 +5385,7 @@
       <c r="M7" s="159"/>
       <c r="N7" s="172"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="171"/>
       <c r="C8" s="159"/>
       <c r="D8" s="159"/>
@@ -5534,7 +5400,7 @@
       <c r="M8" s="159"/>
       <c r="N8" s="172"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="171"/>
       <c r="C9" s="159"/>
       <c r="D9" s="159"/>
@@ -5549,7 +5415,7 @@
       <c r="M9" s="159"/>
       <c r="N9" s="172"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="171"/>
       <c r="C10" s="159"/>
       <c r="D10" s="159"/>
@@ -5564,7 +5430,7 @@
       <c r="M10" s="159"/>
       <c r="N10" s="172"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="171"/>
       <c r="C11" s="159"/>
       <c r="D11" s="159"/>
@@ -5579,7 +5445,7 @@
       <c r="M11" s="159"/>
       <c r="N11" s="172"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="171"/>
       <c r="C12" s="159"/>
       <c r="D12" s="159"/>
@@ -5594,10 +5460,10 @@
       <c r="M12" s="159"/>
       <c r="N12" s="172"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="171"/>
       <c r="C13" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="159"/>
       <c r="E13" s="159"/>
@@ -5611,10 +5477,10 @@
       <c r="M13" s="159"/>
       <c r="N13" s="172"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="171"/>
       <c r="C14" s="181" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="159"/>
       <c r="E14" s="159"/>
@@ -5628,7 +5494,7 @@
       <c r="M14" s="159"/>
       <c r="N14" s="172"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="171"/>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
@@ -5643,7 +5509,7 @@
       <c r="M15" s="159"/>
       <c r="N15" s="172"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="171"/>
       <c r="C16" s="159"/>
       <c r="D16" s="159"/>
@@ -5658,7 +5524,7 @@
       <c r="M16" s="159"/>
       <c r="N16" s="172"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="171"/>
       <c r="C17" s="159"/>
       <c r="D17" s="159"/>
@@ -5673,7 +5539,7 @@
       <c r="M17" s="159"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="171"/>
       <c r="C18" s="159"/>
       <c r="D18" s="159"/>
@@ -5688,7 +5554,7 @@
       <c r="M18" s="159"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="171"/>
       <c r="C19" s="159"/>
       <c r="D19" s="159"/>
@@ -5703,7 +5569,7 @@
       <c r="M19" s="159"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="171"/>
       <c r="C20" s="159"/>
       <c r="D20" s="159"/>
@@ -5718,7 +5584,7 @@
       <c r="M20" s="159"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="171"/>
       <c r="C21" s="159"/>
       <c r="D21" s="159"/>
@@ -5733,7 +5599,7 @@
       <c r="M21" s="159"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="171"/>
       <c r="C22" s="159"/>
       <c r="D22" s="159"/>
@@ -5748,7 +5614,7 @@
       <c r="M22" s="159"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="171"/>
       <c r="C23" s="159"/>
       <c r="D23" s="159"/>
@@ -5763,7 +5629,7 @@
       <c r="M23" s="159"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="171"/>
       <c r="C24" s="159"/>
       <c r="D24" s="159"/>
@@ -5772,7 +5638,7 @@
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="188" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" s="159"/>
       <c r="I24" s="159"/>
@@ -5782,7 +5648,7 @@
       <c r="M24" s="159"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="171"/>
       <c r="C25" s="159"/>
       <c r="D25" s="159"/>
@@ -5796,13 +5662,13 @@
       <c r="M25" s="159"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="171"/>
       <c r="C26" s="159"/>
       <c r="D26" s="159"/>
       <c r="E26" s="159"/>
       <c r="F26" s="181" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="159"/>
       <c r="I26" s="159"/>
@@ -5812,13 +5678,13 @@
       <c r="M26" s="159"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="171"/>
       <c r="C27" s="159"/>
       <c r="D27" s="159"/>
       <c r="E27" s="159"/>
       <c r="F27" s="181" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="159"/>
       <c r="H27" s="159"/>
@@ -5829,12 +5695,12 @@
       <c r="M27" s="159"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="171"/>
       <c r="C28" s="159"/>
       <c r="D28" s="159"/>
       <c r="F28" s="181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" s="159"/>
       <c r="I28" s="159"/>
@@ -5844,7 +5710,7 @@
       <c r="M28" s="159"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="171"/>
       <c r="C29" s="159"/>
       <c r="D29" s="159"/>
@@ -5856,12 +5722,12 @@
       <c r="M29" s="159"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="171"/>
       <c r="C30" s="159"/>
       <c r="D30" s="159"/>
-      <c r="F30" s="214" t="s">
-        <v>166</v>
+      <c r="F30" s="205" t="s">
+        <v>165</v>
       </c>
       <c r="H30" s="159"/>
       <c r="I30" s="159"/>
@@ -5871,12 +5737,12 @@
       <c r="M30" s="159"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="171"/>
       <c r="C31" s="159"/>
       <c r="D31" s="159"/>
-      <c r="F31" s="214" t="s">
-        <v>167</v>
+      <c r="F31" s="205" t="s">
+        <v>166</v>
       </c>
       <c r="H31" s="159"/>
       <c r="I31" s="159"/>
@@ -5886,12 +5752,12 @@
       <c r="M31" s="159"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="171"/>
       <c r="C32" s="159"/>
       <c r="D32" s="159"/>
-      <c r="F32" s="214" t="s">
-        <v>168</v>
+      <c r="F32" s="205" t="s">
+        <v>167</v>
       </c>
       <c r="H32" s="159"/>
       <c r="I32" s="159"/>
@@ -5901,12 +5767,12 @@
       <c r="M32" s="159"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="171"/>
       <c r="C33" s="159"/>
       <c r="D33" s="159"/>
-      <c r="F33" s="214" t="s">
-        <v>169</v>
+      <c r="F33" s="205" t="s">
+        <v>168</v>
       </c>
       <c r="H33" s="159"/>
       <c r="I33" s="159"/>
@@ -5916,12 +5782,12 @@
       <c r="M33" s="159"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="171"/>
       <c r="C34" s="159"/>
       <c r="D34" s="159"/>
-      <c r="F34" s="214" t="s">
-        <v>170</v>
+      <c r="F34" s="205" t="s">
+        <v>169</v>
       </c>
       <c r="H34" s="159"/>
       <c r="I34" s="159"/>
@@ -5931,7 +5797,7 @@
       <c r="M34" s="159"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="171"/>
       <c r="C35" s="159"/>
       <c r="D35" s="159"/>
@@ -5943,7 +5809,7 @@
       <c r="M35" s="159"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="171"/>
       <c r="C36" s="159"/>
       <c r="D36" s="159"/>
@@ -5952,10 +5818,10 @@
         <v>0.16</v>
       </c>
       <c r="F36" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="214" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="G36" s="205" t="s">
+        <v>170</v>
       </c>
       <c r="H36" s="159"/>
       <c r="I36" s="159"/>
@@ -5965,7 +5831,7 @@
       <c r="M36" s="159"/>
       <c r="N36" s="172"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="171"/>
       <c r="D37" s="159"/>
       <c r="H37" s="159"/>
@@ -5976,7 +5842,7 @@
       <c r="M37" s="159"/>
       <c r="N37" s="172"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="171"/>
       <c r="C38" s="159"/>
       <c r="D38" s="159"/>
@@ -5984,7 +5850,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="188" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="188" t="s">
         <v>43</v>
@@ -5997,7 +5863,7 @@
       <c r="M38" s="159"/>
       <c r="N38" s="172"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="171"/>
       <c r="C39" s="159"/>
       <c r="D39" s="159"/>
@@ -6009,7 +5875,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="159"/>
       <c r="I39" s="159"/>
@@ -6019,7 +5885,7 @@
       <c r="M39" s="159"/>
       <c r="N39" s="172"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="171"/>
       <c r="D40" s="159"/>
       <c r="E40" s="159"/>
@@ -6033,7 +5899,7 @@
       <c r="M40" s="159"/>
       <c r="N40" s="172"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="171"/>
       <c r="D41" s="159"/>
       <c r="E41" s="159"/>
@@ -6047,7 +5913,7 @@
       <c r="M41" s="159"/>
       <c r="N41" s="172"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="171"/>
       <c r="D42" s="159"/>
       <c r="E42" s="159"/>
@@ -6061,7 +5927,7 @@
       <c r="M42" s="159"/>
       <c r="N42" s="172"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="171"/>
       <c r="C43" s="159"/>
       <c r="D43" s="159"/>
@@ -6076,10 +5942,10 @@
       <c r="M43" s="159"/>
       <c r="N43" s="172"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="171"/>
       <c r="C44" s="181" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="159"/>
       <c r="E44" s="159"/>
@@ -6093,7 +5959,7 @@
       <c r="M44" s="159"/>
       <c r="N44" s="172"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="171"/>
       <c r="H45" s="159"/>
       <c r="I45" s="159"/>
@@ -6103,7 +5969,7 @@
       <c r="M45" s="159"/>
       <c r="N45" s="172"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="171"/>
       <c r="H46" s="159"/>
       <c r="I46" s="159"/>
@@ -6113,7 +5979,7 @@
       <c r="M46" s="159"/>
       <c r="N46" s="172"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="171"/>
       <c r="H47" s="159"/>
       <c r="I47" s="159"/>
@@ -6123,7 +5989,7 @@
       <c r="M47" s="159"/>
       <c r="N47" s="172"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="171"/>
       <c r="H48" s="159"/>
       <c r="I48" s="159"/>
@@ -6133,7 +5999,7 @@
       <c r="M48" s="159"/>
       <c r="N48" s="172"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="171"/>
       <c r="H49" s="159"/>
       <c r="I49" s="159"/>
@@ -6143,7 +6009,7 @@
       <c r="M49" s="159"/>
       <c r="N49" s="172"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="171"/>
       <c r="H50" s="159"/>
       <c r="I50" s="159"/>
@@ -6153,7 +6019,7 @@
       <c r="M50" s="159"/>
       <c r="N50" s="172"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="171"/>
       <c r="H51" s="159"/>
       <c r="I51" s="159"/>
@@ -6163,7 +6029,7 @@
       <c r="M51" s="159"/>
       <c r="N51" s="172"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="171"/>
       <c r="H52" s="159"/>
       <c r="I52" s="159"/>
@@ -6173,7 +6039,7 @@
       <c r="M52" s="159"/>
       <c r="N52" s="172"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="171"/>
       <c r="H53" s="159"/>
       <c r="I53" s="159"/>
@@ -6183,13 +6049,13 @@
       <c r="M53" s="159"/>
       <c r="N53" s="172"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="171"/>
       <c r="E54" s="159">
         <v>1300</v>
       </c>
       <c r="F54" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G54" s="159"/>
       <c r="H54" s="159"/>
@@ -6200,11 +6066,11 @@
       <c r="M54" s="159"/>
       <c r="N54" s="172"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="171"/>
       <c r="E55" s="159"/>
       <c r="F55" s="181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G55" s="159"/>
       <c r="H55" s="159"/>
@@ -6215,7 +6081,7 @@
       <c r="M55" s="159"/>
       <c r="N55" s="172"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="171"/>
       <c r="E56" s="159"/>
       <c r="F56" s="159"/>
@@ -6228,7 +6094,7 @@
       <c r="M56" s="159"/>
       <c r="N56" s="172"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="171"/>
       <c r="E57" s="159"/>
       <c r="F57" s="159"/>
@@ -6241,17 +6107,17 @@
       <c r="M57" s="159"/>
       <c r="N57" s="172"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="171"/>
       <c r="E58" s="159">
         <f>E54*0.48</f>
         <v>624</v>
       </c>
       <c r="F58" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H58" s="159"/>
       <c r="I58" s="159"/>
@@ -6261,17 +6127,17 @@
       <c r="M58" s="159"/>
       <c r="N58" s="172"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="171"/>
       <c r="E59" s="159">
         <f>E54-E58</f>
         <v>676</v>
       </c>
       <c r="F59" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59" s="159"/>
       <c r="I59" s="159"/>
@@ -6281,7 +6147,7 @@
       <c r="M59" s="159"/>
       <c r="N59" s="172"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="171"/>
       <c r="H60" s="159"/>
       <c r="I60" s="159"/>
@@ -6291,7 +6157,7 @@
       <c r="M60" s="159"/>
       <c r="N60" s="172"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="171"/>
       <c r="F61" s="159"/>
       <c r="G61" s="159"/>
@@ -6303,7 +6169,7 @@
       <c r="M61" s="159"/>
       <c r="N61" s="172"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="171"/>
       <c r="F62" s="159"/>
       <c r="G62" s="159"/>
@@ -6315,7 +6181,7 @@
       <c r="M62" s="159"/>
       <c r="N62" s="172"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="171"/>
       <c r="F63" s="159"/>
       <c r="G63" s="159"/>
@@ -6327,7 +6193,7 @@
       <c r="M63" s="159"/>
       <c r="N63" s="172"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="171"/>
       <c r="F64" s="159"/>
       <c r="G64" s="159"/>
@@ -6339,7 +6205,7 @@
       <c r="M64" s="159"/>
       <c r="N64" s="172"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="171"/>
       <c r="F65" s="159"/>
       <c r="G65" s="159"/>
@@ -6351,7 +6217,7 @@
       <c r="M65" s="159"/>
       <c r="N65" s="172"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="171"/>
       <c r="H66" s="159"/>
       <c r="I66" s="159"/>
@@ -6361,7 +6227,7 @@
       <c r="M66" s="159"/>
       <c r="N66" s="172"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="171"/>
       <c r="I67" s="159"/>
       <c r="J67" s="159"/>
@@ -6370,7 +6236,7 @@
       <c r="M67" s="159"/>
       <c r="N67" s="172"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="171"/>
       <c r="I68" s="159"/>
       <c r="J68" s="159"/>
@@ -6379,7 +6245,7 @@
       <c r="M68" s="159"/>
       <c r="N68" s="172"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="171"/>
       <c r="I69" s="159"/>
       <c r="J69" s="159"/>
@@ -6388,7 +6254,7 @@
       <c r="M69" s="159"/>
       <c r="N69" s="172"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="171"/>
       <c r="I70" s="159"/>
       <c r="J70" s="159"/>
@@ -6397,7 +6263,7 @@
       <c r="M70" s="159"/>
       <c r="N70" s="172"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="171"/>
       <c r="I71" s="159"/>
       <c r="J71" s="159"/>
@@ -6406,7 +6272,7 @@
       <c r="M71" s="159"/>
       <c r="N71" s="172"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="171"/>
       <c r="H72" s="159"/>
       <c r="I72" s="159"/>
@@ -6416,10 +6282,10 @@
       <c r="M72" s="159"/>
       <c r="N72" s="172"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="171"/>
       <c r="C73" s="188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H73" s="159"/>
       <c r="I73" s="159"/>
@@ -6429,7 +6295,7 @@
       <c r="M73" s="159"/>
       <c r="N73" s="172"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="171"/>
       <c r="H74" s="159"/>
       <c r="I74" s="159"/>
@@ -6439,13 +6305,13 @@
       <c r="M74" s="159"/>
       <c r="N74" s="172"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="171"/>
       <c r="E75" s="160">
         <v>25</v>
       </c>
       <c r="F75" s="188" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" s="188" t="s">
         <v>60</v>
@@ -6458,10 +6324,10 @@
       <c r="M75" s="159"/>
       <c r="N75" s="172"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="171"/>
       <c r="G76" s="188" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H76" s="159"/>
       <c r="I76" s="159"/>
@@ -6471,7 +6337,7 @@
       <c r="M76" s="159"/>
       <c r="N76" s="172"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="171"/>
       <c r="H77" s="159"/>
       <c r="I77" s="159"/>
@@ -6481,7 +6347,7 @@
       <c r="M77" s="159"/>
       <c r="N77" s="172"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="171"/>
       <c r="H78" s="159"/>
       <c r="I78" s="159"/>
@@ -6491,7 +6357,7 @@
       <c r="M78" s="159"/>
       <c r="N78" s="172"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="171"/>
       <c r="H79" s="159"/>
       <c r="I79" s="159"/>
@@ -6501,7 +6367,7 @@
       <c r="M79" s="159"/>
       <c r="N79" s="172"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="171"/>
       <c r="H80" s="159"/>
       <c r="I80" s="159"/>
@@ -6511,7 +6377,7 @@
       <c r="M80" s="159"/>
       <c r="N80" s="172"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="171"/>
       <c r="H81" s="159"/>
       <c r="I81" s="159"/>
@@ -6521,7 +6387,7 @@
       <c r="M81" s="159"/>
       <c r="N81" s="172"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="171"/>
       <c r="H82" s="159"/>
       <c r="I82" s="159"/>
@@ -6531,7 +6397,7 @@
       <c r="M82" s="159"/>
       <c r="N82" s="172"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="171"/>
       <c r="H83" s="159"/>
       <c r="I83" s="159"/>
@@ -6541,7 +6407,7 @@
       <c r="M83" s="159"/>
       <c r="N83" s="172"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="171"/>
       <c r="I84" s="159"/>
       <c r="J84" s="159"/>
@@ -6550,7 +6416,7 @@
       <c r="M84" s="159"/>
       <c r="N84" s="172"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="171"/>
       <c r="C85" s="23" t="s">
         <v>27</v>
@@ -6564,7 +6430,7 @@
       <c r="M85" s="159"/>
       <c r="N85" s="172"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="171"/>
       <c r="I86" s="159"/>
       <c r="J86" s="159"/>
@@ -6573,7 +6439,7 @@
       <c r="M86" s="159"/>
       <c r="N86" s="172"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="171"/>
       <c r="I87" s="159"/>
       <c r="J87" s="159"/>
@@ -6582,7 +6448,7 @@
       <c r="M87" s="159"/>
       <c r="N87" s="172"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="171"/>
       <c r="I88" s="159"/>
       <c r="J88" s="159"/>
@@ -6591,7 +6457,7 @@
       <c r="M88" s="159"/>
       <c r="N88" s="172"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="171"/>
       <c r="J89" s="159"/>
       <c r="K89" s="159"/>
@@ -6599,7 +6465,7 @@
       <c r="M89" s="159"/>
       <c r="N89" s="172"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="171"/>
       <c r="J90" s="159"/>
       <c r="K90" s="159"/>
@@ -6607,13 +6473,13 @@
       <c r="M90" s="159"/>
       <c r="N90" s="172"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="171"/>
       <c r="E91" s="178">
         <v>1010</v>
       </c>
       <c r="F91" s="178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G91" s="181" t="s">
         <v>53</v>
@@ -6624,7 +6490,7 @@
       <c r="M91" s="159"/>
       <c r="N91" s="172"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="171"/>
       <c r="E92" s="159"/>
       <c r="F92" s="178"/>
@@ -6635,7 +6501,7 @@
       <c r="M92" s="159"/>
       <c r="N92" s="172"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="171"/>
       <c r="E93" s="159"/>
       <c r="F93" s="159"/>
@@ -6646,7 +6512,7 @@
       <c r="M93" s="159"/>
       <c r="N93" s="172"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="171"/>
       <c r="E94" s="159"/>
       <c r="F94" s="159"/>
@@ -6658,7 +6524,7 @@
       <c r="M94" s="159"/>
       <c r="N94" s="172"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="171"/>
       <c r="E95" s="159"/>
       <c r="F95" s="159"/>
@@ -6670,7 +6536,7 @@
       <c r="M95" s="159"/>
       <c r="N95" s="172"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="171"/>
       <c r="E96" s="159"/>
       <c r="F96" s="159"/>
@@ -6682,7 +6548,7 @@
       <c r="M96" s="159"/>
       <c r="N96" s="172"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="171"/>
       <c r="C97" s="159"/>
       <c r="D97" s="159"/>
@@ -6690,10 +6556,10 @@
         <v>17</v>
       </c>
       <c r="F97" s="178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G97" s="181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I97" s="159"/>
       <c r="J97" s="159"/>
@@ -6702,7 +6568,7 @@
       <c r="M97" s="159"/>
       <c r="N97" s="172"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="171"/>
       <c r="C98" s="159"/>
       <c r="D98" s="159"/>
@@ -6713,12 +6579,12 @@
       <c r="M98" s="159"/>
       <c r="N98" s="172"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="171"/>
       <c r="D99" s="159"/>
       <c r="E99" s="159"/>
       <c r="F99" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I99" s="159"/>
       <c r="J99" s="159"/>
@@ -6727,7 +6593,7 @@
       <c r="M99" s="159"/>
       <c r="N99" s="172"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="171"/>
       <c r="E100" s="159"/>
       <c r="F100" s="159"/>
@@ -6738,16 +6604,16 @@
       <c r="M100" s="159"/>
       <c r="N100" s="172"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="171"/>
       <c r="E101" s="159">
         <v>0</v>
       </c>
       <c r="F101" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G101" s="188" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I101" s="159"/>
       <c r="J101" s="159"/>
@@ -6756,7 +6622,7 @@
       <c r="M101" s="159"/>
       <c r="N101" s="172"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="171"/>
       <c r="I102" s="159"/>
       <c r="J102" s="159"/>
@@ -6765,7 +6631,7 @@
       <c r="M102" s="159"/>
       <c r="N102" s="172"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="171"/>
       <c r="C103" s="165"/>
       <c r="D103" s="159"/>
@@ -6780,7 +6646,7 @@
       <c r="M103" s="159"/>
       <c r="N103" s="172"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="171"/>
       <c r="C104" s="159"/>
       <c r="D104" s="159"/>
@@ -6795,7 +6661,7 @@
       <c r="M104" s="159"/>
       <c r="N104" s="172"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="171"/>
       <c r="C105" s="159"/>
       <c r="D105" s="159"/>
@@ -6810,7 +6676,7 @@
       <c r="M105" s="159"/>
       <c r="N105" s="172"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="171"/>
       <c r="C106" s="159"/>
       <c r="D106" s="159"/>
@@ -6825,7 +6691,7 @@
       <c r="M106" s="159"/>
       <c r="N106" s="172"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="171"/>
       <c r="C107" s="159"/>
       <c r="D107" s="159"/>
@@ -6840,10 +6706,10 @@
       <c r="M107" s="159"/>
       <c r="N107" s="172"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="171"/>
       <c r="C108" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="159"/>
       <c r="E108" s="159"/>
@@ -6857,7 +6723,7 @@
       <c r="M108" s="159"/>
       <c r="N108" s="172"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="171"/>
       <c r="C109" s="159"/>
       <c r="D109" s="159"/>
@@ -6872,7 +6738,7 @@
       <c r="M109" s="159"/>
       <c r="N109" s="172"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="171"/>
       <c r="C110" s="159"/>
       <c r="D110" s="159"/>
@@ -6887,7 +6753,7 @@
       <c r="M110" s="159"/>
       <c r="N110" s="172"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="171"/>
       <c r="C111" s="165"/>
       <c r="D111" s="159"/>
@@ -6896,10 +6762,10 @@
         <v>1300</v>
       </c>
       <c r="F111" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G111" s="181" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H111" s="159"/>
       <c r="I111" s="159"/>
@@ -6909,7 +6775,7 @@
       <c r="M111" s="159"/>
       <c r="N111" s="172"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="171"/>
       <c r="C112" s="165"/>
       <c r="D112" s="159"/>
@@ -6918,7 +6784,7 @@
         <v>1010</v>
       </c>
       <c r="F112" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G112" s="181" t="s">
         <v>53</v>
@@ -6931,7 +6797,7 @@
       <c r="M112" s="159"/>
       <c r="N112" s="172"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="171"/>
       <c r="C113" s="159"/>
       <c r="D113" s="159"/>
@@ -6940,7 +6806,7 @@
         <v>290</v>
       </c>
       <c r="F113" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G113" s="181" t="s">
         <v>15</v>
@@ -6953,7 +6819,7 @@
       <c r="M113" s="159"/>
       <c r="N113" s="172"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="171"/>
       <c r="C114" s="159"/>
       <c r="D114" s="159"/>
@@ -6968,7 +6834,7 @@
       <c r="M114" s="159"/>
       <c r="N114" s="172"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="171"/>
       <c r="C115" s="159"/>
       <c r="D115" s="159"/>
@@ -6977,10 +6843,10 @@
         <v>624</v>
       </c>
       <c r="F115" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G115" s="181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H115" s="159"/>
       <c r="I115" s="159"/>
@@ -6990,7 +6856,7 @@
       <c r="M115" s="159"/>
       <c r="N115" s="172"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="171"/>
       <c r="C116" s="159"/>
       <c r="D116" s="159"/>
@@ -6999,10 +6865,10 @@
         <v>386</v>
       </c>
       <c r="F116" s="188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G116" s="181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H116" s="159"/>
       <c r="I116" s="159"/>
@@ -7012,7 +6878,7 @@
       <c r="M116" s="159"/>
       <c r="N116" s="172"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="171"/>
       <c r="C117" s="159"/>
       <c r="D117" s="159"/>
@@ -7025,7 +6891,7 @@
       <c r="M117" s="159"/>
       <c r="N117" s="172"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="171"/>
       <c r="C118" s="159"/>
       <c r="D118" s="159"/>
@@ -7040,7 +6906,7 @@
       <c r="M118" s="159"/>
       <c r="N118" s="172"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="171"/>
       <c r="C119" s="159"/>
       <c r="D119" s="159"/>
@@ -7055,7 +6921,7 @@
       <c r="M119" s="159"/>
       <c r="N119" s="172"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="171"/>
       <c r="C120" s="159"/>
       <c r="D120" s="159"/>
@@ -7070,7 +6936,7 @@
       <c r="M120" s="159"/>
       <c r="N120" s="172"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="171"/>
       <c r="C121" s="159"/>
       <c r="D121" s="159"/>
@@ -7085,7 +6951,7 @@
       <c r="M121" s="159"/>
       <c r="N121" s="172"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="171"/>
       <c r="C122" s="159"/>
       <c r="D122" s="159"/>
@@ -7100,7 +6966,7 @@
       <c r="M122" s="159"/>
       <c r="N122" s="172"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="171"/>
       <c r="C123" s="159"/>
       <c r="D123" s="159"/>
@@ -7115,7 +6981,7 @@
       <c r="M123" s="159"/>
       <c r="N123" s="172"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="171"/>
       <c r="C124" s="159"/>
       <c r="D124" s="159"/>
@@ -7130,7 +6996,7 @@
       <c r="M124" s="159"/>
       <c r="N124" s="172"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="171"/>
       <c r="C125" s="159"/>
       <c r="D125" s="159"/>
@@ -7145,7 +7011,7 @@
       <c r="M125" s="159"/>
       <c r="N125" s="172"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="171"/>
       <c r="C126" s="159"/>
       <c r="D126" s="159"/>
@@ -7160,7 +7026,7 @@
       <c r="M126" s="159"/>
       <c r="N126" s="172"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="171"/>
       <c r="C127" s="159"/>
       <c r="D127" s="159"/>
@@ -7175,7 +7041,7 @@
       <c r="M127" s="159"/>
       <c r="N127" s="172"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="171"/>
       <c r="C128" s="159"/>
       <c r="D128" s="159"/>
@@ -7190,7 +7056,7 @@
       <c r="M128" s="159"/>
       <c r="N128" s="172"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="171"/>
       <c r="C129" s="159"/>
       <c r="D129" s="159"/>
@@ -7205,7 +7071,7 @@
       <c r="M129" s="159"/>
       <c r="N129" s="172"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="171"/>
       <c r="C130" s="159"/>
       <c r="D130" s="159"/>
@@ -7220,7 +7086,7 @@
       <c r="M130" s="159"/>
       <c r="N130" s="172"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="171"/>
       <c r="C131" s="159"/>
       <c r="D131" s="159"/>
@@ -7235,7 +7101,7 @@
       <c r="M131" s="159"/>
       <c r="N131" s="172"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="171"/>
       <c r="C132" s="159"/>
       <c r="D132" s="159"/>
@@ -7250,7 +7116,7 @@
       <c r="M132" s="159"/>
       <c r="N132" s="172"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="171"/>
       <c r="C133" s="159"/>
       <c r="D133" s="159"/>
@@ -7265,7 +7131,7 @@
       <c r="M133" s="159"/>
       <c r="N133" s="172"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="171"/>
       <c r="C134" s="159"/>
       <c r="D134" s="159"/>
@@ -7280,7 +7146,7 @@
       <c r="M134" s="159"/>
       <c r="N134" s="172"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="171"/>
       <c r="C135" s="159"/>
       <c r="D135" s="159"/>
@@ -7295,7 +7161,7 @@
       <c r="M135" s="159"/>
       <c r="N135" s="172"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="171"/>
       <c r="C136" s="159"/>
       <c r="D136" s="121"/>
@@ -7310,7 +7176,7 @@
       <c r="M136" s="159"/>
       <c r="N136" s="172"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="171"/>
       <c r="C137" s="159"/>
       <c r="D137" s="159"/>
@@ -7325,7 +7191,7 @@
       <c r="M137" s="159"/>
       <c r="N137" s="172"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="171"/>
       <c r="C138" s="159"/>
       <c r="D138" s="159"/>
@@ -7340,7 +7206,7 @@
       <c r="M138" s="159"/>
       <c r="N138" s="172"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="171"/>
       <c r="C139" s="159"/>
       <c r="D139" s="159"/>
@@ -7355,7 +7221,7 @@
       <c r="M139" s="159"/>
       <c r="N139" s="172"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="171"/>
       <c r="C140" s="159"/>
       <c r="D140" s="159"/>
@@ -7370,7 +7236,7 @@
       <c r="M140" s="159"/>
       <c r="N140" s="172"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="171"/>
       <c r="C141" s="159"/>
       <c r="D141" s="159"/>
@@ -7385,7 +7251,7 @@
       <c r="M141" s="159"/>
       <c r="N141" s="172"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="171"/>
       <c r="C142" s="159"/>
       <c r="D142" s="159"/>
@@ -7400,7 +7266,7 @@
       <c r="M142" s="159"/>
       <c r="N142" s="172"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="171"/>
       <c r="C143" s="159"/>
       <c r="D143" s="159"/>
@@ -7415,7 +7281,7 @@
       <c r="M143" s="159"/>
       <c r="N143" s="172"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="171"/>
       <c r="C144" s="159"/>
       <c r="D144" s="159"/>
@@ -7430,7 +7296,7 @@
       <c r="M144" s="159"/>
       <c r="N144" s="172"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="171"/>
       <c r="C145" s="159"/>
       <c r="D145" s="159"/>
@@ -7445,7 +7311,7 @@
       <c r="M145" s="159"/>
       <c r="N145" s="172"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="171"/>
       <c r="C146" s="159"/>
       <c r="D146" s="159"/>
@@ -7460,7 +7326,7 @@
       <c r="M146" s="159"/>
       <c r="N146" s="172"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="171"/>
       <c r="C147" s="159"/>
       <c r="D147" s="159"/>
@@ -7475,7 +7341,7 @@
       <c r="M147" s="159"/>
       <c r="N147" s="172"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="171"/>
       <c r="C148" s="159"/>
       <c r="D148" s="159"/>
@@ -7490,7 +7356,7 @@
       <c r="M148" s="159"/>
       <c r="N148" s="172"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="171"/>
       <c r="C149" s="159"/>
       <c r="D149" s="159"/>
@@ -7505,7 +7371,7 @@
       <c r="M149" s="159"/>
       <c r="N149" s="172"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="171"/>
       <c r="C150" s="159"/>
       <c r="D150" s="159"/>
@@ -7520,7 +7386,7 @@
       <c r="M150" s="159"/>
       <c r="N150" s="172"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="171"/>
       <c r="C151" s="159"/>
       <c r="D151" s="159"/>
@@ -7535,7 +7401,7 @@
       <c r="M151" s="159"/>
       <c r="N151" s="172"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="171"/>
       <c r="C152" s="159"/>
       <c r="D152" s="159"/>
@@ -7550,7 +7416,7 @@
       <c r="M152" s="159"/>
       <c r="N152" s="172"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="171"/>
       <c r="C153" s="159"/>
       <c r="D153" s="159"/>
@@ -7565,7 +7431,7 @@
       <c r="M153" s="159"/>
       <c r="N153" s="172"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="171"/>
       <c r="C154" s="159"/>
       <c r="D154" s="159"/>
@@ -7580,7 +7446,7 @@
       <c r="M154" s="159"/>
       <c r="N154" s="172"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="171"/>
       <c r="C155" s="159"/>
       <c r="D155" s="159"/>
@@ -7595,7 +7461,7 @@
       <c r="M155" s="159"/>
       <c r="N155" s="172"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="171"/>
       <c r="C156" s="159"/>
       <c r="D156" s="159"/>
@@ -7610,7 +7476,7 @@
       <c r="M156" s="159"/>
       <c r="N156" s="172"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="171"/>
       <c r="C157" s="159"/>
       <c r="D157" s="159"/>
@@ -7625,7 +7491,7 @@
       <c r="M157" s="159"/>
       <c r="N157" s="172"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="171"/>
       <c r="C158" s="159"/>
       <c r="D158" s="159"/>
@@ -7640,7 +7506,7 @@
       <c r="M158" s="159"/>
       <c r="N158" s="172"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="171"/>
       <c r="C159" s="159"/>
       <c r="D159" s="159"/>
@@ -7655,7 +7521,7 @@
       <c r="M159" s="159"/>
       <c r="N159" s="172"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="171"/>
       <c r="C160" s="159"/>
       <c r="D160" s="159"/>
@@ -7670,7 +7536,7 @@
       <c r="M160" s="159"/>
       <c r="N160" s="172"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="171"/>
       <c r="C161" s="159"/>
       <c r="D161" s="159"/>
@@ -7685,7 +7551,7 @@
       <c r="M161" s="159"/>
       <c r="N161" s="172"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="171"/>
       <c r="C162" s="159"/>
       <c r="D162" s="159"/>
@@ -7700,7 +7566,7 @@
       <c r="M162" s="159"/>
       <c r="N162" s="172"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="171"/>
       <c r="C163" s="159"/>
       <c r="D163" s="159"/>
@@ -7715,7 +7581,7 @@
       <c r="M163" s="159"/>
       <c r="N163" s="172"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="171"/>
       <c r="C164" s="159"/>
       <c r="D164" s="159"/>
@@ -7730,7 +7596,7 @@
       <c r="M164" s="159"/>
       <c r="N164" s="172"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="171"/>
       <c r="C165" s="159"/>
       <c r="D165" s="159"/>
@@ -7745,7 +7611,7 @@
       <c r="M165" s="159"/>
       <c r="N165" s="172"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="171"/>
       <c r="C166" s="159"/>
       <c r="D166" s="159"/>
@@ -7760,7 +7626,7 @@
       <c r="M166" s="159"/>
       <c r="N166" s="172"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="171"/>
       <c r="C167" s="159"/>
       <c r="D167" s="159"/>
@@ -7775,7 +7641,7 @@
       <c r="M167" s="159"/>
       <c r="N167" s="172"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="171"/>
       <c r="C168" s="159"/>
       <c r="D168" s="159"/>
@@ -7790,7 +7656,7 @@
       <c r="M168" s="159"/>
       <c r="N168" s="172"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="171"/>
       <c r="C169" s="159"/>
       <c r="D169" s="159"/>
@@ -7805,7 +7671,7 @@
       <c r="M169" s="159"/>
       <c r="N169" s="172"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="171"/>
       <c r="C170" s="159"/>
       <c r="D170" s="159"/>
@@ -7820,7 +7686,7 @@
       <c r="M170" s="159"/>
       <c r="N170" s="172"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="171"/>
       <c r="C171" s="159"/>
       <c r="D171" s="159"/>
@@ -7835,7 +7701,7 @@
       <c r="M171" s="159"/>
       <c r="N171" s="172"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="171"/>
       <c r="C172" s="159"/>
       <c r="D172" s="159"/>
@@ -7850,7 +7716,7 @@
       <c r="M172" s="159"/>
       <c r="N172" s="172"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="171"/>
       <c r="C173" s="159"/>
       <c r="D173" s="159"/>
@@ -7865,7 +7731,7 @@
       <c r="M173" s="159"/>
       <c r="N173" s="172"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="171"/>
       <c r="C174" s="159"/>
       <c r="D174" s="159"/>
@@ -7880,7 +7746,7 @@
       <c r="M174" s="159"/>
       <c r="N174" s="172"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="171"/>
       <c r="C175" s="159"/>
       <c r="D175" s="159"/>
@@ -7895,7 +7761,7 @@
       <c r="M175" s="159"/>
       <c r="N175" s="172"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="171"/>
       <c r="C176" s="159"/>
       <c r="D176" s="159"/>
@@ -7910,7 +7776,7 @@
       <c r="M176" s="159"/>
       <c r="N176" s="172"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="171"/>
       <c r="C177" s="159"/>
       <c r="D177" s="159"/>
@@ -7925,7 +7791,7 @@
       <c r="M177" s="159"/>
       <c r="N177" s="172"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="171"/>
       <c r="C178" s="159"/>
       <c r="D178" s="159"/>
@@ -7940,7 +7806,7 @@
       <c r="M178" s="159"/>
       <c r="N178" s="172"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="171"/>
       <c r="C179" s="159"/>
       <c r="D179" s="159"/>
@@ -7955,7 +7821,7 @@
       <c r="M179" s="159"/>
       <c r="N179" s="172"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="171"/>
       <c r="C180" s="159"/>
       <c r="D180" s="159"/>
@@ -7970,7 +7836,7 @@
       <c r="M180" s="159"/>
       <c r="N180" s="172"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="171"/>
       <c r="C181" s="159"/>
       <c r="D181" s="159"/>
@@ -7985,7 +7851,7 @@
       <c r="M181" s="159"/>
       <c r="N181" s="172"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="171"/>
       <c r="C182" s="159"/>
       <c r="D182" s="159"/>
@@ -8000,7 +7866,7 @@
       <c r="M182" s="159"/>
       <c r="N182" s="172"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="171"/>
       <c r="C183" s="159"/>
       <c r="D183" s="159"/>
@@ -8015,7 +7881,7 @@
       <c r="M183" s="159"/>
       <c r="N183" s="172"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="171"/>
       <c r="C184" s="159"/>
       <c r="D184" s="159"/>
@@ -8030,7 +7896,7 @@
       <c r="M184" s="159"/>
       <c r="N184" s="172"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="171"/>
       <c r="C185" s="159"/>
       <c r="D185" s="159"/>
@@ -8045,7 +7911,7 @@
       <c r="M185" s="159"/>
       <c r="N185" s="172"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="171"/>
       <c r="D186" s="159"/>
       <c r="E186" s="159"/>
@@ -8059,7 +7925,7 @@
       <c r="M186" s="159"/>
       <c r="N186" s="172"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="171"/>
       <c r="C187" s="159"/>
       <c r="D187" s="159"/>
@@ -8074,7 +7940,7 @@
       <c r="M187" s="159"/>
       <c r="N187" s="172"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="171"/>
       <c r="C188" s="159"/>
       <c r="D188" s="159"/>
@@ -8089,7 +7955,7 @@
       <c r="M188" s="159"/>
       <c r="N188" s="172"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="171"/>
       <c r="C189" s="159"/>
       <c r="D189" s="159"/>
@@ -8104,7 +7970,7 @@
       <c r="M189" s="159"/>
       <c r="N189" s="172"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="171"/>
       <c r="C190" s="159"/>
       <c r="D190" s="159"/>
@@ -8119,7 +7985,7 @@
       <c r="M190" s="159"/>
       <c r="N190" s="172"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="171"/>
       <c r="C191" s="159"/>
       <c r="D191" s="159"/>
@@ -8134,7 +8000,7 @@
       <c r="M191" s="159"/>
       <c r="N191" s="172"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="171"/>
       <c r="C192" s="159"/>
       <c r="D192" s="159"/>
@@ -8149,7 +8015,7 @@
       <c r="M192" s="159"/>
       <c r="N192" s="172"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="171"/>
       <c r="C193" s="181"/>
       <c r="D193" s="159"/>
@@ -8164,7 +8030,7 @@
       <c r="M193" s="159"/>
       <c r="N193" s="172"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="171"/>
       <c r="C194" s="181"/>
       <c r="D194" s="159"/>
@@ -8179,7 +8045,7 @@
       <c r="M194" s="159"/>
       <c r="N194" s="172"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="171"/>
       <c r="C195" s="159"/>
       <c r="D195" s="159"/>
@@ -8194,7 +8060,7 @@
       <c r="M195" s="159"/>
       <c r="N195" s="172"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="171"/>
       <c r="C196" s="159"/>
       <c r="D196" s="159"/>
@@ -8209,7 +8075,7 @@
       <c r="M196" s="159"/>
       <c r="N196" s="172"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="171"/>
       <c r="C197" s="159"/>
       <c r="D197" s="159"/>
@@ -8224,7 +8090,7 @@
       <c r="M197" s="159"/>
       <c r="N197" s="172"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="171"/>
       <c r="C198" s="159"/>
       <c r="D198" s="159"/>
@@ -8239,7 +8105,7 @@
       <c r="M198" s="159"/>
       <c r="N198" s="172"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="171"/>
       <c r="C199" s="159"/>
       <c r="D199" s="159"/>
@@ -8254,7 +8120,7 @@
       <c r="M199" s="159"/>
       <c r="N199" s="172"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="171"/>
       <c r="C200" s="159"/>
       <c r="D200" s="159"/>
@@ -8269,7 +8135,7 @@
       <c r="M200" s="159"/>
       <c r="N200" s="172"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B201" s="171"/>
       <c r="C201" s="159"/>
       <c r="D201" s="159"/>
@@ -8284,7 +8150,7 @@
       <c r="M201" s="159"/>
       <c r="N201" s="172"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B202" s="171"/>
       <c r="C202" s="159"/>
       <c r="D202" s="159"/>
@@ -8299,7 +8165,7 @@
       <c r="M202" s="159"/>
       <c r="N202" s="172"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B203" s="171"/>
       <c r="C203" s="159"/>
       <c r="D203" s="159"/>
@@ -8314,7 +8180,7 @@
       <c r="M203" s="159"/>
       <c r="N203" s="172"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B204" s="171"/>
       <c r="C204" s="159"/>
       <c r="D204" s="159"/>
@@ -8329,7 +8195,7 @@
       <c r="M204" s="159"/>
       <c r="N204" s="172"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B205" s="171"/>
       <c r="C205" s="159"/>
       <c r="D205" s="159"/>
@@ -8344,7 +8210,7 @@
       <c r="M205" s="159"/>
       <c r="N205" s="172"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B206" s="171"/>
       <c r="C206" s="159"/>
       <c r="E206" s="159"/>
@@ -8358,7 +8224,7 @@
       <c r="M206" s="159"/>
       <c r="N206" s="172"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B207" s="171"/>
       <c r="C207" s="159"/>
       <c r="D207" s="159"/>
@@ -8373,7 +8239,7 @@
       <c r="M207" s="159"/>
       <c r="N207" s="172"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B208" s="171"/>
       <c r="C208" s="159"/>
       <c r="D208" s="159"/>
@@ -8388,7 +8254,7 @@
       <c r="M208" s="159"/>
       <c r="N208" s="172"/>
     </row>
-    <row r="209" spans="2:14">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B209" s="171"/>
       <c r="C209" s="159"/>
       <c r="D209" s="159"/>
@@ -8403,7 +8269,7 @@
       <c r="M209" s="159"/>
       <c r="N209" s="172"/>
     </row>
-    <row r="210" spans="2:14">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B210" s="171"/>
       <c r="C210" s="159"/>
       <c r="D210" s="159"/>
@@ -8418,7 +8284,7 @@
       <c r="M210" s="159"/>
       <c r="N210" s="172"/>
     </row>
-    <row r="211" spans="2:14">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B211" s="171"/>
       <c r="C211" s="159"/>
       <c r="D211" s="159"/>
@@ -8433,7 +8299,7 @@
       <c r="M211" s="159"/>
       <c r="N211" s="172"/>
     </row>
-    <row r="212" spans="2:14">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B212" s="171"/>
       <c r="C212" s="159"/>
       <c r="D212" s="159"/>
@@ -8448,7 +8314,7 @@
       <c r="M212" s="159"/>
       <c r="N212" s="172"/>
     </row>
-    <row r="213" spans="2:14">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B213" s="171"/>
       <c r="C213" s="159"/>
       <c r="D213" s="159"/>
@@ -8460,7 +8326,7 @@
       <c r="M213" s="159"/>
       <c r="N213" s="172"/>
     </row>
-    <row r="214" spans="2:14">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B214" s="171"/>
       <c r="C214" s="159"/>
       <c r="D214" s="159"/>
@@ -8472,7 +8338,7 @@
       <c r="M214" s="159"/>
       <c r="N214" s="172"/>
     </row>
-    <row r="215" spans="2:14">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B215" s="171"/>
       <c r="C215" s="159"/>
       <c r="D215" s="159"/>
@@ -8484,7 +8350,7 @@
       <c r="M215" s="159"/>
       <c r="N215" s="172"/>
     </row>
-    <row r="216" spans="2:14">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B216" s="171"/>
       <c r="C216" s="159"/>
       <c r="D216" s="159"/>
@@ -8496,7 +8362,7 @@
       <c r="M216" s="159"/>
       <c r="N216" s="172"/>
     </row>
-    <row r="217" spans="2:14">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B217" s="171"/>
       <c r="C217" s="159"/>
       <c r="D217" s="159"/>
@@ -8508,7 +8374,7 @@
       <c r="M217" s="159"/>
       <c r="N217" s="172"/>
     </row>
-    <row r="218" spans="2:14">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B218" s="171"/>
       <c r="C218" s="159"/>
       <c r="D218" s="159"/>
@@ -8520,7 +8386,7 @@
       <c r="M218" s="159"/>
       <c r="N218" s="172"/>
     </row>
-    <row r="219" spans="2:14">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B219" s="171"/>
       <c r="C219" s="159"/>
       <c r="D219" s="159"/>
@@ -8532,7 +8398,7 @@
       <c r="M219" s="159"/>
       <c r="N219" s="172"/>
     </row>
-    <row r="220" spans="2:14">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B220" s="171"/>
       <c r="C220" s="159"/>
       <c r="D220" s="159"/>
@@ -8547,7 +8413,7 @@
       <c r="M220" s="159"/>
       <c r="N220" s="172"/>
     </row>
-    <row r="221" spans="2:14">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B221" s="171"/>
       <c r="C221" s="159"/>
       <c r="D221" s="159"/>
@@ -8562,7 +8428,7 @@
       <c r="M221" s="159"/>
       <c r="N221" s="172"/>
     </row>
-    <row r="222" spans="2:14">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B222" s="171"/>
       <c r="C222" s="159"/>
       <c r="D222" s="159"/>
@@ -8577,7 +8443,7 @@
       <c r="M222" s="159"/>
       <c r="N222" s="172"/>
     </row>
-    <row r="223" spans="2:14">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B223" s="171"/>
       <c r="C223" s="159"/>
       <c r="D223" s="159"/>
@@ -8592,7 +8458,7 @@
       <c r="M223" s="159"/>
       <c r="N223" s="172"/>
     </row>
-    <row r="224" spans="2:14">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B224" s="171"/>
       <c r="C224" s="159"/>
       <c r="D224" s="159"/>
@@ -8607,7 +8473,7 @@
       <c r="M224" s="159"/>
       <c r="N224" s="172"/>
     </row>
-    <row r="225" spans="2:14">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B225" s="171"/>
       <c r="C225" s="159"/>
       <c r="D225" s="159"/>
@@ -8622,7 +8488,7 @@
       <c r="M225" s="159"/>
       <c r="N225" s="172"/>
     </row>
-    <row r="226" spans="2:14">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B226" s="171"/>
       <c r="C226" s="176"/>
       <c r="D226" s="159"/>
@@ -8637,7 +8503,7 @@
       <c r="M226" s="159"/>
       <c r="N226" s="172"/>
     </row>
-    <row r="227" spans="2:14">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B227" s="171"/>
       <c r="C227" s="159"/>
       <c r="D227" s="159"/>
@@ -8652,7 +8518,7 @@
       <c r="M227" s="159"/>
       <c r="N227" s="172"/>
     </row>
-    <row r="228" spans="2:14">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B228" s="171"/>
       <c r="C228" s="159"/>
       <c r="D228" s="159"/>
@@ -8667,7 +8533,7 @@
       <c r="M228" s="159"/>
       <c r="N228" s="172"/>
     </row>
-    <row r="229" spans="2:14">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B229" s="171"/>
       <c r="C229" s="159"/>
       <c r="D229" s="159"/>
@@ -8682,7 +8548,7 @@
       <c r="M229" s="159"/>
       <c r="N229" s="172"/>
     </row>
-    <row r="230" spans="2:14">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B230" s="171"/>
       <c r="C230" s="159"/>
       <c r="D230" s="159"/>
@@ -8697,7 +8563,7 @@
       <c r="M230" s="159"/>
       <c r="N230" s="172"/>
     </row>
-    <row r="231" spans="2:14">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B231" s="171"/>
       <c r="C231" s="159"/>
       <c r="D231" s="159"/>
@@ -8712,7 +8578,7 @@
       <c r="M231" s="159"/>
       <c r="N231" s="172"/>
     </row>
-    <row r="232" spans="2:14">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B232" s="171"/>
       <c r="C232" s="159"/>
       <c r="D232" s="159"/>
@@ -8727,7 +8593,7 @@
       <c r="M232" s="159"/>
       <c r="N232" s="172"/>
     </row>
-    <row r="233" spans="2:14">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B233" s="171"/>
       <c r="C233" s="159"/>
       <c r="D233" s="159"/>
@@ -8742,7 +8608,7 @@
       <c r="M233" s="159"/>
       <c r="N233" s="172"/>
     </row>
-    <row r="234" spans="2:14">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B234" s="171"/>
       <c r="C234" s="159"/>
       <c r="D234" s="159"/>
@@ -8757,7 +8623,7 @@
       <c r="M234" s="159"/>
       <c r="N234" s="172"/>
     </row>
-    <row r="235" spans="2:14">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B235" s="171"/>
       <c r="C235" s="159"/>
       <c r="D235" s="176"/>
@@ -8772,7 +8638,7 @@
       <c r="M235" s="159"/>
       <c r="N235" s="172"/>
     </row>
-    <row r="236" spans="2:14">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B236" s="171"/>
       <c r="C236" s="159"/>
       <c r="D236" s="176"/>
@@ -8787,7 +8653,7 @@
       <c r="M236" s="159"/>
       <c r="N236" s="172"/>
     </row>
-    <row r="237" spans="2:14">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B237" s="171"/>
       <c r="C237" s="159"/>
       <c r="D237" s="176"/>
@@ -8802,7 +8668,7 @@
       <c r="M237" s="159"/>
       <c r="N237" s="172"/>
     </row>
-    <row r="238" spans="2:14">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B238" s="171"/>
       <c r="C238" s="159"/>
       <c r="D238" s="176"/>
@@ -8817,7 +8683,7 @@
       <c r="M238" s="159"/>
       <c r="N238" s="172"/>
     </row>
-    <row r="239" spans="2:14">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B239" s="171"/>
       <c r="C239" s="159"/>
       <c r="D239" s="159"/>
@@ -8832,7 +8698,7 @@
       <c r="M239" s="159"/>
       <c r="N239" s="172"/>
     </row>
-    <row r="240" spans="2:14">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B240" s="171"/>
       <c r="C240" s="159"/>
       <c r="D240" s="159"/>
@@ -8847,7 +8713,7 @@
       <c r="M240" s="159"/>
       <c r="N240" s="172"/>
     </row>
-    <row r="241" spans="2:14">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B241" s="171"/>
       <c r="C241" s="159"/>
       <c r="D241" s="159"/>
@@ -8862,7 +8728,7 @@
       <c r="M241" s="159"/>
       <c r="N241" s="172"/>
     </row>
-    <row r="242" spans="2:14">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B242" s="171"/>
       <c r="C242" s="159"/>
       <c r="D242" s="159"/>
@@ -8877,7 +8743,7 @@
       <c r="M242" s="159"/>
       <c r="N242" s="172"/>
     </row>
-    <row r="243" spans="2:14">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B243" s="171"/>
       <c r="C243" s="159"/>
       <c r="D243" s="159"/>
@@ -8892,7 +8758,7 @@
       <c r="M243" s="159"/>
       <c r="N243" s="172"/>
     </row>
-    <row r="244" spans="2:14">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B244" s="171"/>
       <c r="C244" s="159"/>
       <c r="D244" s="159"/>
@@ -8907,7 +8773,7 @@
       <c r="M244" s="159"/>
       <c r="N244" s="172"/>
     </row>
-    <row r="245" spans="2:14">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B245" s="171"/>
       <c r="C245" s="159"/>
       <c r="D245" s="159"/>
@@ -8922,7 +8788,7 @@
       <c r="M245" s="159"/>
       <c r="N245" s="172"/>
     </row>
-    <row r="246" spans="2:14">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B246" s="171"/>
       <c r="C246" s="159"/>
       <c r="D246" s="159"/>
@@ -8937,7 +8803,7 @@
       <c r="M246" s="159"/>
       <c r="N246" s="172"/>
     </row>
-    <row r="247" spans="2:14">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B247" s="171"/>
       <c r="C247" s="159"/>
       <c r="D247" s="159"/>
@@ -8952,7 +8818,7 @@
       <c r="M247" s="159"/>
       <c r="N247" s="172"/>
     </row>
-    <row r="248" spans="2:14">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B248" s="171"/>
       <c r="C248" s="159"/>
       <c r="D248" s="159"/>
@@ -8967,7 +8833,7 @@
       <c r="M248" s="159"/>
       <c r="N248" s="172"/>
     </row>
-    <row r="249" spans="2:14">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B249" s="171"/>
       <c r="C249" s="159"/>
       <c r="D249" s="159"/>
@@ -8982,7 +8848,7 @@
       <c r="M249" s="159"/>
       <c r="N249" s="172"/>
     </row>
-    <row r="250" spans="2:14">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B250" s="171"/>
       <c r="C250" s="159"/>
       <c r="D250" s="159"/>
@@ -8997,7 +8863,7 @@
       <c r="M250" s="159"/>
       <c r="N250" s="172"/>
     </row>
-    <row r="251" spans="2:14">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B251" s="171"/>
       <c r="C251" s="159"/>
       <c r="D251" s="159"/>
@@ -9012,7 +8878,7 @@
       <c r="M251" s="159"/>
       <c r="N251" s="172"/>
     </row>
-    <row r="252" spans="2:14">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B252" s="171"/>
       <c r="C252" s="159"/>
       <c r="D252" s="159"/>
@@ -9027,7 +8893,7 @@
       <c r="M252" s="159"/>
       <c r="N252" s="172"/>
     </row>
-    <row r="253" spans="2:14">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B253" s="171"/>
       <c r="C253" s="159"/>
       <c r="D253" s="159"/>
@@ -9042,7 +8908,7 @@
       <c r="M253" s="159"/>
       <c r="N253" s="172"/>
     </row>
-    <row r="254" spans="2:14">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B254" s="171"/>
       <c r="C254" s="159"/>
       <c r="D254" s="159"/>
@@ -9057,7 +8923,7 @@
       <c r="M254" s="159"/>
       <c r="N254" s="172"/>
     </row>
-    <row r="255" spans="2:14">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B255" s="171"/>
       <c r="C255" s="159"/>
       <c r="D255" s="159"/>
@@ -9072,7 +8938,7 @@
       <c r="M255" s="159"/>
       <c r="N255" s="172"/>
     </row>
-    <row r="256" spans="2:14">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B256" s="171"/>
       <c r="C256" s="159"/>
       <c r="D256" s="159"/>
@@ -9087,7 +8953,7 @@
       <c r="M256" s="159"/>
       <c r="N256" s="172"/>
     </row>
-    <row r="257" spans="2:14">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B257" s="171"/>
       <c r="C257" s="159"/>
       <c r="D257" s="159"/>
@@ -9102,7 +8968,7 @@
       <c r="M257" s="159"/>
       <c r="N257" s="172"/>
     </row>
-    <row r="258" spans="2:14">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B258" s="171"/>
       <c r="C258" s="159"/>
       <c r="D258" s="159"/>
@@ -9117,7 +8983,7 @@
       <c r="M258" s="159"/>
       <c r="N258" s="172"/>
     </row>
-    <row r="259" spans="2:14">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B259" s="171"/>
       <c r="C259" s="159"/>
       <c r="D259" s="159"/>
@@ -9132,7 +8998,7 @@
       <c r="M259" s="159"/>
       <c r="N259" s="172"/>
     </row>
-    <row r="260" spans="2:14">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B260" s="171"/>
       <c r="C260" s="159"/>
       <c r="D260" s="159"/>
@@ -9147,7 +9013,7 @@
       <c r="M260" s="159"/>
       <c r="N260" s="172"/>
     </row>
-    <row r="261" spans="2:14">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B261" s="171"/>
       <c r="C261" s="159"/>
       <c r="D261" s="159"/>
@@ -9162,7 +9028,7 @@
       <c r="M261" s="159"/>
       <c r="N261" s="172"/>
     </row>
-    <row r="262" spans="2:14">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B262" s="171"/>
       <c r="C262" s="159"/>
       <c r="D262" s="159"/>
@@ -9177,7 +9043,7 @@
       <c r="M262" s="159"/>
       <c r="N262" s="172"/>
     </row>
-    <row r="263" spans="2:14">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B263" s="171"/>
       <c r="C263" s="159"/>
       <c r="D263" s="159"/>
@@ -9192,7 +9058,7 @@
       <c r="M263" s="159"/>
       <c r="N263" s="172"/>
     </row>
-    <row r="264" spans="2:14">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B264" s="171"/>
       <c r="C264" s="159"/>
       <c r="D264" s="159"/>
@@ -9207,7 +9073,7 @@
       <c r="M264" s="159"/>
       <c r="N264" s="172"/>
     </row>
-    <row r="265" spans="2:14">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B265" s="171"/>
       <c r="C265" s="159"/>
       <c r="D265" s="159"/>
@@ -9222,7 +9088,7 @@
       <c r="M265" s="159"/>
       <c r="N265" s="172"/>
     </row>
-    <row r="266" spans="2:14">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B266" s="171"/>
       <c r="C266" s="159"/>
       <c r="D266" s="159"/>
@@ -9237,7 +9103,7 @@
       <c r="M266" s="159"/>
       <c r="N266" s="172"/>
     </row>
-    <row r="267" spans="2:14">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B267" s="171"/>
       <c r="C267" s="159"/>
       <c r="D267" s="159"/>
@@ -9252,7 +9118,7 @@
       <c r="M267" s="159"/>
       <c r="N267" s="172"/>
     </row>
-    <row r="268" spans="2:14">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B268" s="171"/>
       <c r="C268" s="159"/>
       <c r="D268" s="159"/>
@@ -9267,7 +9133,7 @@
       <c r="M268" s="159"/>
       <c r="N268" s="172"/>
     </row>
-    <row r="269" spans="2:14">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B269" s="171"/>
       <c r="C269" s="159"/>
       <c r="D269" s="159"/>
@@ -9282,7 +9148,7 @@
       <c r="M269" s="159"/>
       <c r="N269" s="172"/>
     </row>
-    <row r="270" spans="2:14">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B270" s="171"/>
       <c r="C270" s="159"/>
       <c r="D270" s="159"/>
@@ -9297,7 +9163,7 @@
       <c r="M270" s="159"/>
       <c r="N270" s="172"/>
     </row>
-    <row r="271" spans="2:14">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B271" s="171"/>
       <c r="C271" s="159"/>
       <c r="D271" s="159"/>
@@ -9312,7 +9178,7 @@
       <c r="M271" s="159"/>
       <c r="N271" s="172"/>
     </row>
-    <row r="272" spans="2:14">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B272" s="171"/>
       <c r="C272" s="159"/>
       <c r="D272" s="159"/>
@@ -9327,7 +9193,7 @@
       <c r="M272" s="159"/>
       <c r="N272" s="172"/>
     </row>
-    <row r="273" spans="2:14">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B273" s="171"/>
       <c r="C273" s="159"/>
       <c r="D273" s="159"/>
@@ -9342,7 +9208,7 @@
       <c r="M273" s="159"/>
       <c r="N273" s="172"/>
     </row>
-    <row r="274" spans="2:14">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B274" s="171"/>
       <c r="C274" s="159"/>
       <c r="D274" s="159"/>
@@ -9357,7 +9223,7 @@
       <c r="M274" s="159"/>
       <c r="N274" s="172"/>
     </row>
-    <row r="275" spans="2:14">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B275" s="171"/>
       <c r="C275" s="159"/>
       <c r="D275" s="159"/>
@@ -9372,7 +9238,7 @@
       <c r="M275" s="159"/>
       <c r="N275" s="172"/>
     </row>
-    <row r="276" spans="2:14">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B276" s="171"/>
       <c r="C276" s="159"/>
       <c r="D276" s="159"/>
@@ -9387,7 +9253,7 @@
       <c r="M276" s="159"/>
       <c r="N276" s="172"/>
     </row>
-    <row r="277" spans="2:14">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B277" s="171"/>
       <c r="C277" s="159"/>
       <c r="D277" s="159"/>
@@ -9402,7 +9268,7 @@
       <c r="M277" s="159"/>
       <c r="N277" s="172"/>
     </row>
-    <row r="278" spans="2:14">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B278" s="171"/>
       <c r="C278" s="159"/>
       <c r="D278" s="159"/>
@@ -9417,7 +9283,7 @@
       <c r="M278" s="159"/>
       <c r="N278" s="172"/>
     </row>
-    <row r="279" spans="2:14">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B279" s="171"/>
       <c r="C279" s="159"/>
       <c r="D279" s="159"/>
@@ -9432,7 +9298,7 @@
       <c r="M279" s="159"/>
       <c r="N279" s="172"/>
     </row>
-    <row r="280" spans="2:14">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B280" s="171"/>
       <c r="C280" s="159"/>
       <c r="D280" s="159"/>
@@ -9447,7 +9313,7 @@
       <c r="M280" s="159"/>
       <c r="N280" s="172"/>
     </row>
-    <row r="281" spans="2:14">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B281" s="171"/>
       <c r="C281" s="159"/>
       <c r="D281" s="159"/>
@@ -9462,7 +9328,7 @@
       <c r="M281" s="159"/>
       <c r="N281" s="172"/>
     </row>
-    <row r="282" spans="2:14">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B282" s="171"/>
       <c r="C282" s="159"/>
       <c r="D282" s="159"/>
@@ -9477,7 +9343,7 @@
       <c r="M282" s="159"/>
       <c r="N282" s="172"/>
     </row>
-    <row r="283" spans="2:14">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B283" s="171"/>
       <c r="C283" s="159"/>
       <c r="D283" s="159"/>
@@ -9492,7 +9358,7 @@
       <c r="M283" s="159"/>
       <c r="N283" s="172"/>
     </row>
-    <row r="284" spans="2:14">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B284" s="171"/>
       <c r="C284" s="159"/>
       <c r="D284" s="159"/>
@@ -9507,7 +9373,7 @@
       <c r="M284" s="159"/>
       <c r="N284" s="172"/>
     </row>
-    <row r="285" spans="2:14">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B285" s="171"/>
       <c r="C285" s="159"/>
       <c r="D285" s="159"/>
@@ -9522,7 +9388,7 @@
       <c r="M285" s="159"/>
       <c r="N285" s="172"/>
     </row>
-    <row r="286" spans="2:14">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B286" s="171"/>
       <c r="C286" s="159"/>
       <c r="D286" s="159"/>
@@ -9537,7 +9403,7 @@
       <c r="M286" s="159"/>
       <c r="N286" s="172"/>
     </row>
-    <row r="287" spans="2:14">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B287" s="171"/>
       <c r="C287" s="159"/>
       <c r="D287" s="159"/>
@@ -9552,7 +9418,7 @@
       <c r="M287" s="159"/>
       <c r="N287" s="172"/>
     </row>
-    <row r="288" spans="2:14">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B288" s="171"/>
       <c r="C288" s="159"/>
       <c r="D288" s="159"/>
@@ -9567,7 +9433,7 @@
       <c r="M288" s="159"/>
       <c r="N288" s="172"/>
     </row>
-    <row r="289" spans="2:14">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B289" s="171"/>
       <c r="C289" s="159"/>
       <c r="D289" s="159"/>
@@ -9582,7 +9448,7 @@
       <c r="M289" s="159"/>
       <c r="N289" s="172"/>
     </row>
-    <row r="290" spans="2:14">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B290" s="171"/>
       <c r="C290" s="159"/>
       <c r="D290" s="159"/>
@@ -9597,7 +9463,7 @@
       <c r="M290" s="159"/>
       <c r="N290" s="172"/>
     </row>
-    <row r="291" spans="2:14">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B291" s="171"/>
       <c r="C291" s="159"/>
       <c r="D291" s="159"/>
@@ -9612,7 +9478,7 @@
       <c r="M291" s="159"/>
       <c r="N291" s="172"/>
     </row>
-    <row r="292" spans="2:14">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B292" s="171"/>
       <c r="C292" s="159"/>
       <c r="D292" s="159"/>
@@ -9627,7 +9493,7 @@
       <c r="M292" s="159"/>
       <c r="N292" s="172"/>
     </row>
-    <row r="293" spans="2:14">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B293" s="171"/>
       <c r="C293" s="159"/>
       <c r="D293" s="159"/>
@@ -9642,7 +9508,7 @@
       <c r="M293" s="159"/>
       <c r="N293" s="172"/>
     </row>
-    <row r="294" spans="2:14">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B294" s="171"/>
       <c r="C294" s="159"/>
       <c r="D294" s="159"/>
@@ -9657,7 +9523,7 @@
       <c r="M294" s="159"/>
       <c r="N294" s="172"/>
     </row>
-    <row r="295" spans="2:14">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B295" s="171"/>
       <c r="C295" s="159"/>
       <c r="D295" s="159"/>
@@ -9672,7 +9538,7 @@
       <c r="M295" s="159"/>
       <c r="N295" s="172"/>
     </row>
-    <row r="296" spans="2:14">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B296" s="171"/>
       <c r="C296" s="159"/>
       <c r="D296" s="159"/>
@@ -9687,7 +9553,7 @@
       <c r="M296" s="159"/>
       <c r="N296" s="172"/>
     </row>
-    <row r="297" spans="2:14">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B297" s="171"/>
       <c r="C297" s="159"/>
       <c r="D297" s="159"/>
@@ -9702,7 +9568,7 @@
       <c r="M297" s="159"/>
       <c r="N297" s="172"/>
     </row>
-    <row r="298" spans="2:14">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B298" s="171"/>
       <c r="C298" s="159"/>
       <c r="D298" s="159"/>
@@ -9717,7 +9583,7 @@
       <c r="M298" s="159"/>
       <c r="N298" s="172"/>
     </row>
-    <row r="299" spans="2:14">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B299" s="171"/>
       <c r="C299" s="159"/>
       <c r="D299" s="159"/>
@@ -9732,7 +9598,7 @@
       <c r="M299" s="159"/>
       <c r="N299" s="172"/>
     </row>
-    <row r="300" spans="2:14">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B300" s="171"/>
       <c r="C300" s="159"/>
       <c r="D300" s="159"/>
@@ -9747,7 +9613,7 @@
       <c r="M300" s="159"/>
       <c r="N300" s="172"/>
     </row>
-    <row r="301" spans="2:14">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B301" s="171"/>
       <c r="C301" s="159"/>
       <c r="D301" s="159"/>
@@ -9762,7 +9628,7 @@
       <c r="M301" s="159"/>
       <c r="N301" s="172"/>
     </row>
-    <row r="302" spans="2:14">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B302" s="171"/>
       <c r="C302" s="159"/>
       <c r="D302" s="159"/>
@@ -9777,7 +9643,7 @@
       <c r="M302" s="159"/>
       <c r="N302" s="172"/>
     </row>
-    <row r="303" spans="2:14">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B303" s="171"/>
       <c r="C303" s="159"/>
       <c r="D303" s="159"/>
@@ -9792,7 +9658,7 @@
       <c r="M303" s="159"/>
       <c r="N303" s="172"/>
     </row>
-    <row r="304" spans="2:14">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B304" s="171"/>
       <c r="C304" s="159"/>
       <c r="D304" s="159"/>
@@ -9807,7 +9673,7 @@
       <c r="M304" s="159"/>
       <c r="N304" s="172"/>
     </row>
-    <row r="305" spans="2:14">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B305" s="171"/>
       <c r="C305" s="159"/>
       <c r="D305" s="159"/>
@@ -9822,7 +9688,7 @@
       <c r="M305" s="159"/>
       <c r="N305" s="172"/>
     </row>
-    <row r="306" spans="2:14">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B306" s="171"/>
       <c r="C306" s="159"/>
       <c r="D306" s="159"/>
@@ -9837,7 +9703,7 @@
       <c r="M306" s="159"/>
       <c r="N306" s="172"/>
     </row>
-    <row r="307" spans="2:14">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B307" s="171"/>
       <c r="C307" s="159"/>
       <c r="D307" s="159"/>
@@ -9852,7 +9718,7 @@
       <c r="M307" s="159"/>
       <c r="N307" s="172"/>
     </row>
-    <row r="308" spans="2:14">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B308" s="171"/>
       <c r="C308" s="159"/>
       <c r="D308" s="159"/>
@@ -9867,7 +9733,7 @@
       <c r="M308" s="159"/>
       <c r="N308" s="172"/>
     </row>
-    <row r="309" spans="2:14">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B309" s="171"/>
       <c r="C309" s="159"/>
       <c r="D309" s="159"/>
@@ -9882,7 +9748,7 @@
       <c r="M309" s="159"/>
       <c r="N309" s="172"/>
     </row>
-    <row r="310" spans="2:14">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B310" s="171"/>
       <c r="C310" s="159"/>
       <c r="D310" s="159"/>
@@ -9897,7 +9763,7 @@
       <c r="M310" s="159"/>
       <c r="N310" s="172"/>
     </row>
-    <row r="311" spans="2:14">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B311" s="171"/>
       <c r="C311" s="159"/>
       <c r="D311" s="159"/>
@@ -9912,7 +9778,7 @@
       <c r="M311" s="159"/>
       <c r="N311" s="172"/>
     </row>
-    <row r="312" spans="2:14">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B312" s="171"/>
       <c r="C312" s="159"/>
       <c r="D312" s="159"/>
@@ -9927,7 +9793,7 @@
       <c r="M312" s="159"/>
       <c r="N312" s="172"/>
     </row>
-    <row r="313" spans="2:14">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B313" s="171"/>
       <c r="C313" s="159"/>
       <c r="D313" s="159"/>
@@ -9942,7 +9808,7 @@
       <c r="M313" s="159"/>
       <c r="N313" s="172"/>
     </row>
-    <row r="314" spans="2:14">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B314" s="171"/>
       <c r="C314" s="159"/>
       <c r="D314" s="159"/>
@@ -9957,7 +9823,7 @@
       <c r="M314" s="159"/>
       <c r="N314" s="172"/>
     </row>
-    <row r="315" spans="2:14">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B315" s="171"/>
       <c r="C315" s="159"/>
       <c r="D315" s="159"/>
@@ -9972,7 +9838,7 @@
       <c r="M315" s="159"/>
       <c r="N315" s="172"/>
     </row>
-    <row r="316" spans="2:14">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B316" s="171"/>
       <c r="C316" s="159"/>
       <c r="D316" s="159"/>
@@ -9987,7 +9853,7 @@
       <c r="M316" s="159"/>
       <c r="N316" s="172"/>
     </row>
-    <row r="317" spans="2:14">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B317" s="171"/>
       <c r="C317" s="159"/>
       <c r="D317" s="159"/>
@@ -10002,7 +9868,7 @@
       <c r="M317" s="159"/>
       <c r="N317" s="172"/>
     </row>
-    <row r="318" spans="2:14">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B318" s="171"/>
       <c r="C318" s="159"/>
       <c r="D318" s="159"/>
@@ -10017,7 +9883,7 @@
       <c r="M318" s="159"/>
       <c r="N318" s="172"/>
     </row>
-    <row r="319" spans="2:14">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B319" s="171"/>
       <c r="C319" s="159"/>
       <c r="D319" s="159"/>
@@ -10032,7 +9898,7 @@
       <c r="M319" s="159"/>
       <c r="N319" s="172"/>
     </row>
-    <row r="320" spans="2:14">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B320" s="171"/>
       <c r="C320" s="159"/>
       <c r="D320" s="159"/>
@@ -10047,7 +9913,7 @@
       <c r="M320" s="159"/>
       <c r="N320" s="172"/>
     </row>
-    <row r="321" spans="2:14">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B321" s="171"/>
       <c r="C321" s="159"/>
       <c r="D321" s="159"/>
@@ -10062,7 +9928,7 @@
       <c r="M321" s="159"/>
       <c r="N321" s="172"/>
     </row>
-    <row r="322" spans="2:14">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B322" s="171"/>
       <c r="C322" s="159"/>
       <c r="D322" s="159"/>
@@ -10077,7 +9943,7 @@
       <c r="M322" s="159"/>
       <c r="N322" s="172"/>
     </row>
-    <row r="323" spans="2:14">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B323" s="171"/>
       <c r="C323" s="159"/>
       <c r="D323" s="159"/>
@@ -10092,7 +9958,7 @@
       <c r="M323" s="159"/>
       <c r="N323" s="172"/>
     </row>
-    <row r="324" spans="2:14">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B324" s="171"/>
       <c r="C324" s="159"/>
       <c r="D324" s="159"/>
@@ -10107,7 +9973,7 @@
       <c r="M324" s="159"/>
       <c r="N324" s="172"/>
     </row>
-    <row r="325" spans="2:14">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B325" s="171"/>
       <c r="C325" s="159"/>
       <c r="D325" s="159"/>
@@ -10122,7 +9988,7 @@
       <c r="M325" s="159"/>
       <c r="N325" s="172"/>
     </row>
-    <row r="326" spans="2:14">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B326" s="171"/>
       <c r="C326" s="159"/>
       <c r="D326" s="159"/>
@@ -10137,7 +10003,7 @@
       <c r="M326" s="159"/>
       <c r="N326" s="172"/>
     </row>
-    <row r="327" spans="2:14">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B327" s="171"/>
       <c r="C327" s="159"/>
       <c r="D327" s="159"/>
@@ -10152,7 +10018,7 @@
       <c r="M327" s="159"/>
       <c r="N327" s="172"/>
     </row>
-    <row r="328" spans="2:14">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B328" s="171"/>
       <c r="C328" s="159"/>
       <c r="D328" s="159"/>
@@ -10167,7 +10033,7 @@
       <c r="M328" s="159"/>
       <c r="N328" s="172"/>
     </row>
-    <row r="329" spans="2:14">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B329" s="171"/>
       <c r="C329" s="159"/>
       <c r="D329" s="159"/>
@@ -10182,7 +10048,7 @@
       <c r="M329" s="159"/>
       <c r="N329" s="172"/>
     </row>
-    <row r="330" spans="2:14">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B330" s="171"/>
       <c r="C330" s="159"/>
       <c r="D330" s="159"/>
@@ -10197,7 +10063,7 @@
       <c r="M330" s="159"/>
       <c r="N330" s="172"/>
     </row>
-    <row r="331" spans="2:14">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B331" s="171"/>
       <c r="C331" s="159"/>
       <c r="D331" s="159"/>
@@ -10212,7 +10078,7 @@
       <c r="M331" s="159"/>
       <c r="N331" s="172"/>
     </row>
-    <row r="332" spans="2:14">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B332" s="171"/>
       <c r="C332" s="159"/>
       <c r="D332" s="159"/>
@@ -10227,7 +10093,7 @@
       <c r="M332" s="159"/>
       <c r="N332" s="172"/>
     </row>
-    <row r="333" spans="2:14">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B333" s="171"/>
       <c r="C333" s="159"/>
       <c r="D333" s="159"/>
@@ -10242,7 +10108,7 @@
       <c r="M333" s="159"/>
       <c r="N333" s="172"/>
     </row>
-    <row r="334" spans="2:14">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B334" s="171"/>
       <c r="C334" s="159"/>
       <c r="D334" s="159"/>
@@ -10257,7 +10123,7 @@
       <c r="M334" s="159"/>
       <c r="N334" s="172"/>
     </row>
-    <row r="335" spans="2:14">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B335" s="171"/>
       <c r="C335" s="159"/>
       <c r="D335" s="159"/>
@@ -10272,7 +10138,7 @@
       <c r="M335" s="159"/>
       <c r="N335" s="172"/>
     </row>
-    <row r="336" spans="2:14">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B336" s="171"/>
       <c r="C336" s="159"/>
       <c r="D336" s="159"/>
@@ -10287,7 +10153,7 @@
       <c r="M336" s="159"/>
       <c r="N336" s="172"/>
     </row>
-    <row r="337" spans="2:14">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B337" s="171"/>
       <c r="C337" s="159"/>
       <c r="D337" s="159"/>
@@ -10306,10 +10172,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/households/households_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFE81A-2F26-C641-955F-2FF2B915C12A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D839A-9467-F84F-82F4-C4E88278EB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -825,6 +831,9 @@
   <si>
     <t>1.6m2</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -835,8 +844,8 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2083,7 +2092,7 @@
     <xf numFmtId="0" fontId="38" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2096,8 +2105,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="35" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="35" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3222,12 +3231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="74" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="72" customFormat="1">
@@ -3398,22 +3407,22 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3852,14 +3861,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="89">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="113" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="90"/>
+      <c r="I27" s="190" t="s">
+        <v>172</v>
+      </c>
       <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
@@ -4322,23 +4333,23 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="42" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="42" customWidth="1"/>
     <col min="15" max="15" width="56" style="42" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="42"/>
+    <col min="16" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4910,18 +4921,18 @@
       <selection activeCell="C20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="92" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="92" customWidth="1"/>
     <col min="2" max="2" width="4" style="92" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="92" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="92" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="97" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" style="98" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="92"/>
+    <col min="3" max="3" width="27.85546875" style="92" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="92" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="97" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="98" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5184,16 +5195,16 @@
       <selection activeCell="F40" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="154" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="154" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="154"/>
-    <col min="4" max="4" width="7.5" style="154" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="154" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="154" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="154"/>
+    <col min="4" max="4" width="7.42578125" style="154" customWidth="1"/>
     <col min="5" max="5" width="13" style="154" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="154"/>
-    <col min="8" max="8" width="18.5" style="154" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="154"/>
+    <col min="6" max="7" width="10.7109375" style="154"/>
+    <col min="8" max="8" width="18.42578125" style="154" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="154"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
